--- a/+task3/20221003. Задание 03ои. Сойка.xlsx
+++ b/+task3/20221003. Задание 03ои. Сойка.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreybedretdinov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiasoyka\Desktop\файлы\вуз\Сафронов\инфа\+task3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BD1B1D-9ADF-9C47-9C0F-EC4AEA3485A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90E4307-45F8-45D9-9636-FA75B3700275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BA4C7B16-62BA-4A0A-BE15-6B29BFA5F200}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BA4C7B16-62BA-4A0A-BE15-6B29BFA5F200}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,11 +372,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,9 +387,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -402,13 +405,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,15 +417,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1435,285 +1434,285 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E1BCC-43ED-4321-99E6-6E5281326A4E}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="12">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="12">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="4" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="4" t="s">
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1736,19 +1735,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC02647-5371-4F15-8489-B24B94A15F8E}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
       <c r="C2" s="20" t="s">
         <v>53</v>
       </c>
@@ -1756,49 +1755,48 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>POWER(COS(C6),2) - POWER(COS(C7),2)</f>
         <v>-0.14251665452076923</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="9">
         <f>(COS(C6) - COS(C7))*(COS(C6) + COS(C7))</f>
         <v>-0.14251665452076914</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.5</v>
       </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="13">
         <v>0.3</v>
       </c>
     </row>
